--- a/data/trans_dic/P19C01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C01-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19C01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C01-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,97%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,03%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,8%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,77%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,83%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,94%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,45%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,42%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,33%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,47%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>35,55; 46,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>39,88; 50,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>47,68; 57,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>60,53; 77,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>42,17; 52,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>40,62; 50,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>48,59; 58,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>65,57; 80,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>40,76; 48,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>41,55; 48,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>49,63; 57,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>65,59; 76,66</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,01%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,58%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,59%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,46%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,01%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>28,86; 37,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>30,64; 38,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>35,66; 44,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>59,07; 71,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>34,56; 42,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>36,72; 45,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>40,52; 48,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>61,23; 70,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>33,1; 38,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>34,55; 40,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>39,38; 45,6</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>62,18; 70,0</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,74%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,79%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,38%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,88%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,78%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>25,89; 34,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>26,47; 34,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>36,6; 44,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>56,08; 64,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>27,8; 35,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>34,14; 41,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>42,51; 51,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>59,75; 66,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>28,22; 33,69</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>31,73; 37,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>40,99; 46,71</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>59,0; 64,69</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,97%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,49%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,17%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,91%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,37%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>21,74; 30,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>22,49; 30,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>37,41; 46,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>43,69; 61,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>24,83; 33,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>29,64; 38,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>39,66; 48,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>56,43; 63,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>24,42; 30,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>27,42; 33,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>39,92; 46,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>50,87; 61,66</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,86%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,69%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,38%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,63%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,07%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,46%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,67%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,52%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,07%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>20,98; 31,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>20,82; 30,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>30,52; 41,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>47,84; 55,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>17,63; 26,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>23,39; 32,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>33,98; 44,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>53,46; 59,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>20,42; 26,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>23,14; 29,92</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>34,11; 41,23</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>51,56; 56,83</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,69%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,6%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,22%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,61%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,4%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>16,34; 25,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>12,38; 19,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>29,0; 38,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>42,65; 49,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>14,9; 22,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>17,85; 24,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>28,94; 38,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>29,14; 47,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>16,65; 22,39</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>16,23; 21,28</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>30,5; 37,1</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>32,49; 47,09</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,82%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,43%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,78%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,49%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,39%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,37%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,25%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,92%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,12%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,89%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>27,98; 31,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>27,62; 31,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>38,88; 42,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>53,35; 58,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>29,66; 33,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>32,42; 36,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>41,39; 45,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>50,54; 59,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>29,28; 31,96</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>30,77; 33,3</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>40,78; 43,59</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>53,59; 58,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C01-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>69,1%</t>
+          <t>68,27%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>73,94%</t>
+          <t>73,76%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>71,47%</t>
+          <t>70,7%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>60,53; 77,05</t>
+          <t>59,32; 76,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>65,57; 80,01</t>
+          <t>65,22; 79,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>65,59; 76,66</t>
+          <t>64,54; 76,25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>65,47%</t>
+          <t>65,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>66,47%</t>
+          <t>70,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>66,01%</t>
+          <t>68,3%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>59,07; 71,58</t>
+          <t>59,04; 71,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>61,23; 70,91</t>
+          <t>63,62; 80,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>62,18; 70,0</t>
+          <t>63,66; 74,99</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>60,45%</t>
+          <t>60,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>63,04%</t>
+          <t>62,97%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>61,78%</t>
+          <t>61,75%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>56,08; 64,56</t>
+          <t>56,15; 64,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>59,75; 66,34</t>
+          <t>59,76; 66,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>59,0; 64,69</t>
+          <t>58,95; 64,66</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>55,92%</t>
+          <t>43,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>60,73%</t>
+          <t>58,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>58,37%</t>
+          <t>50,19%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>43,69; 61,77</t>
+          <t>20,4; 61,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>56,43; 63,92</t>
+          <t>49,75; 62,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,87; 61,66</t>
+          <t>29,17; 60,7</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>51,69%</t>
+          <t>51,55%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>56,46%</t>
+          <t>56,27%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>54,07%</t>
+          <t>53,89%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>47,84; 55,75</t>
+          <t>47,65; 55,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>53,46; 59,79</t>
+          <t>53,24; 59,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>51,56; 56,83</t>
+          <t>51,41; 56,69</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>21,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>33,69%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>46,04%</t>
+          <t>49,62%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>20,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>22,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>33,54%</t>
+          <t>34,48%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>41,6%</t>
+          <t>34,3%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>33,61%</t>
+          <t>35,08%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>43,4%</t>
+          <t>40,04%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,34; 25,24</t>
+          <t>16,29; 27,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,38; 19,97</t>
+          <t>12,36; 22,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,0; 38,7</t>
+          <t>29,29; 42,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>42,65; 49,03</t>
+          <t>45,14; 53,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,9; 22,22</t>
+          <t>15,34; 24,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,85; 24,49</t>
+          <t>18,6; 28,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,94; 38,0</t>
+          <t>28,44; 40,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,14; 47,63</t>
+          <t>12,62; 53,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,65; 22,39</t>
+          <t>17,55; 24,8</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>16,23; 21,28</t>
+          <t>16,68; 23,6</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>30,5; 37,1</t>
+          <t>31,2; 39,56</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>32,49; 47,09</t>
+          <t>21,12; 51,88</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>29,82%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>40,78%</t>
+          <t>30,41%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>56,49%</t>
+          <t>41,62%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>31,39%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>34,23%</t>
+          <t>19,54%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>32,4%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>57,25%</t>
+          <t>41,29%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>30,65%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>31,92%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>42,12%</t>
+          <t>31,62%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>56,89%</t>
+          <t>41,42%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>11,69; 25,53</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8,88; 19,78</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>24,27; 37,47</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>36,96; 46,41</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>11,11; 22,72</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>15,49; 25,16</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>25,77; 39,74</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>37,57; 44,7</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>13,19; 21,58</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>14,15; 20,92</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>26,65; 36,53</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>38,79; 44,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>29,82%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>29,43%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>40,78%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>53,39%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>31,39%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>34,23%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>43,37%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>55,82%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>30,65%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>31,92%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>42,12%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>54,65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>27,98; 31,76</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>27,62; 31,15</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>38,88; 42,61</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>53,35; 58,63</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>40,94; 58,29</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>29,66; 33,15</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>32,42; 36,02</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>41,39; 45,31</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>50,54; 59,6</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>44,78; 60,11</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>29,28; 31,96</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>30,77; 33,3</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>40,78; 43,59</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>53,59; 58,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>47,23; 58,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P19C01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C01-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>35,55; 46,06</t>
+          <t>35,97; 46,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>39,88; 50,04</t>
+          <t>39,61; 49,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>47,68; 57,9</t>
+          <t>47,42; 58,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>59,32; 76,45</t>
+          <t>58,63; 76,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>42,17; 52,68</t>
+          <t>42,63; 52,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>40,62; 50,76</t>
+          <t>40,32; 50,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>48,59; 58,82</t>
+          <t>48,38; 58,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>65,22; 79,91</t>
+          <t>66,5; 80,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>40,76; 48,23</t>
+          <t>41,19; 48,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>41,55; 48,7</t>
+          <t>41,85; 49,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>49,63; 57,25</t>
+          <t>49,36; 56,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>64,54; 76,25</t>
+          <t>64,72; 76,15</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,86; 37,0</t>
+          <t>29,12; 37,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,64; 38,36</t>
+          <t>30,44; 38,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>35,66; 44,4</t>
+          <t>35,67; 44,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>59,04; 71,69</t>
+          <t>59,62; 71,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,56; 42,39</t>
+          <t>34,29; 42,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,72; 45,38</t>
+          <t>36,49; 45,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,52; 48,92</t>
+          <t>40,28; 49,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>63,62; 80,67</t>
+          <t>63,97; 80,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,1; 38,65</t>
+          <t>32,85; 38,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>34,55; 40,69</t>
+          <t>34,59; 40,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>39,38; 45,6</t>
+          <t>39,15; 45,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>63,66; 74,99</t>
+          <t>63,95; 76,14</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,89; 34,28</t>
+          <t>26,1; 34,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,47; 34,21</t>
+          <t>26,46; 34,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,6; 44,83</t>
+          <t>36,46; 45,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>56,15; 64,56</t>
+          <t>55,85; 65,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,8; 35,7</t>
+          <t>27,9; 35,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,14; 41,93</t>
+          <t>34,26; 41,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>42,51; 51,37</t>
+          <t>42,51; 51,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>59,76; 66,28</t>
+          <t>59,31; 66,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,22; 33,69</t>
+          <t>28,11; 33,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>31,73; 37,25</t>
+          <t>31,76; 37,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>40,99; 46,71</t>
+          <t>41,24; 47,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>58,95; 64,66</t>
+          <t>58,88; 64,62</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,74; 30,69</t>
+          <t>21,45; 30,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,49; 30,43</t>
+          <t>22,16; 30,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>37,41; 46,64</t>
+          <t>37,59; 46,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,4; 61,63</t>
+          <t>18,43; 61,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,83; 33,64</t>
+          <t>24,77; 33,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,64; 38,44</t>
+          <t>29,83; 38,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,66; 48,11</t>
+          <t>39,83; 48,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,75; 62,73</t>
+          <t>47,75; 62,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,42; 30,59</t>
+          <t>24,31; 30,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,42; 33,33</t>
+          <t>27,44; 33,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>39,92; 46,09</t>
+          <t>39,82; 46,06</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,17; 60,7</t>
+          <t>30,1; 60,6</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,98; 31,95</t>
+          <t>20,93; 31,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,82; 30,09</t>
+          <t>20,88; 30,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,52; 41,15</t>
+          <t>30,88; 41,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>47,65; 55,63</t>
+          <t>47,74; 55,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,63; 26,39</t>
+          <t>17,52; 26,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,39; 32,47</t>
+          <t>22,81; 32,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,98; 44,35</t>
+          <t>33,89; 44,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>53,24; 59,55</t>
+          <t>53,25; 59,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,42; 26,99</t>
+          <t>20,28; 27,32</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>23,14; 29,92</t>
+          <t>23,11; 29,81</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>34,11; 41,23</t>
+          <t>33,7; 41,41</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>51,41; 56,69</t>
+          <t>51,28; 56,47</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,29; 27,76</t>
+          <t>16,44; 27,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,36; 22,43</t>
+          <t>12,51; 22,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,29; 42,28</t>
+          <t>29,37; 42,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>45,14; 53,63</t>
+          <t>45,53; 54,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,34; 24,89</t>
+          <t>15,06; 25,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,6; 28,23</t>
+          <t>17,74; 27,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,44; 40,22</t>
+          <t>28,78; 41,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,62; 53,38</t>
+          <t>13,4; 53,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,55; 24,8</t>
+          <t>17,35; 24,87</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>16,68; 23,6</t>
+          <t>17,09; 23,96</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>31,2; 39,56</t>
+          <t>30,71; 39,38</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>21,12; 51,88</t>
+          <t>21,2; 51,71</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,69; 25,53</t>
+          <t>11,87; 25,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,88; 19,78</t>
+          <t>8,69; 19,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>24,27; 37,47</t>
+          <t>23,49; 37,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>36,96; 46,41</t>
+          <t>37,05; 46,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,11; 22,72</t>
+          <t>11,36; 22,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,49; 25,16</t>
+          <t>15,3; 24,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>25,77; 39,74</t>
+          <t>25,38; 39,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>37,57; 44,7</t>
+          <t>38,17; 44,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,19; 21,58</t>
+          <t>12,6; 21,1</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,15; 20,92</t>
+          <t>13,94; 20,95</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>26,65; 36,53</t>
+          <t>26,57; 37,06</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>38,79; 44,5</t>
+          <t>38,51; 44,54</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>27,98; 31,76</t>
+          <t>28,17; 31,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>27,62; 31,15</t>
+          <t>27,58; 31,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>38,88; 42,61</t>
+          <t>38,95; 42,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>40,94; 58,29</t>
+          <t>41,03; 58,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>29,66; 33,15</t>
+          <t>29,68; 33,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>32,42; 36,02</t>
+          <t>32,54; 36,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>41,39; 45,31</t>
+          <t>41,56; 45,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>44,78; 60,11</t>
+          <t>44,31; 60,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>29,28; 31,96</t>
+          <t>29,41; 31,95</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>30,77; 33,3</t>
+          <t>30,56; 33,11</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>40,78; 43,59</t>
+          <t>40,75; 43,45</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>47,23; 58,63</t>
+          <t>47,86; 58,51</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue una revisión o chequeo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>147233</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>170735</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>186311</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>261780</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>179754</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>170026</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>189524</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>223902</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>326987</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>340760</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>375836</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>485682</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>129286; 165677</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>150197; 188749</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>167318; 205584</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>224799; 293858</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>160402; 197659</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>149573; 187939</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>170257; 207078</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>201844; 243486</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>303024; 355095</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>313955; 368134</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>347855; 401074</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>444612; 523148</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>189218</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>205398</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>197645</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>263659</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>211050</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>229610</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>222579</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>352477</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>400268</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>435008</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>420224</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>616136</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>168100; 213828</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>181823; 228888</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>175864; 221613</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>239872; 288437</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>187819; 234323</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>204280; 253694</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>200093; 243823</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>319673; 402876</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>369550; 435651</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>400260; 470804</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>387472; 453277</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>576812; 686770</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>150895</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>177807</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>227284</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>317136</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>189757</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>250234</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>268944</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>334940</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>340651</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>428041</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>496228</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>652076</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>131262; 173971</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>155236; 202039</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>203380; 253066</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>292689; 341433</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>168373; 215216</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>225590; 274883</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>243604; 292339</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>315481; 352185</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>311054; 372979</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>395472; 462957</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>466411; 532354</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>621708; 682292</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1112</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>104459</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>142362</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>215039</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>373589</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>127531</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>191092</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>238626</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>411195</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>231990</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>333454</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>453666</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>784783</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>86827; 123696</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>120298; 164385</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>192618; 238111</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>159011; 531575</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>108769; 146988</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>167704; 216539</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>217008; 263338</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>334556; 439975</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>205200; 257223</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>303195; 366884</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>420994; 486940</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>470570; 947566</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>911</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>71752</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>91513</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>133038</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>281785</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>68213</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>107970</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>154676</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>300786</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>139965</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>199482</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>287714</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>582571</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>57016; 86754</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>75456; 110472</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>114563; 154675</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>260964; 304080</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>55908; 83950</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>89129; 128534</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>134154; 177195</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>284610; 318049</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>119969; 161577</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>173777; 224166</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>258444; 317582</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>554407; 610517</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>46162</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>44384</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>82370</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>178306</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>49904</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>68600</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>95491</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>205787</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>96066</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>112984</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>177862</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>384093</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>34974; 58999</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>32839; 58448</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>67591; 97460</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>163604; 194705</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>37057; 61723</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>53336; 83745</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>79702; 114149</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>80414; 319582</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>79613; 114097</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>96206; 134886</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>155723; 199662</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>203396; 496048</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>22611</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>25570</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>44716</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>114956</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>33857</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>59082</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>73832</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>168754</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>56468</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>84652</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>118548</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>283710</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>15051; 32474</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>16062; 36709</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>34550; 55128</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>102353; 129098</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>23646; 46088</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>46271; 75397</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>57824; 89968</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>155984; 182560</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>42223; 70673</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>67930; 102121</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>99627; 138960</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>263765; 305080</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>801</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1033</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>1822</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>839</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1199</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>3035</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1552</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>2232</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>4857</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>732331</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>857768</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1086404</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1791211</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>860064</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1076613</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1243673</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1997841</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1592395</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1934381</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>2330077</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>3789051</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>692031; 776288</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>803968; 910699</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1037677; 1143813</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1376402; 1951046</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>813224; 914498</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1023560; 1132517</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1191683; 1299392</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1585742; 2149709</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1528215; 1660205</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1851991; 2006171</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>2254138; 2403527</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>3318150; 4056925</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>